--- a/Proyecto de grado IIND/1. Datos/9. Mapa_R_PM10.xlsx
+++ b/Proyecto de grado IIND/1. Datos/9. Mapa_R_PM10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windows\Documents\GitHub\Problem_Set_1\Proyecto-de-grado-IIND\Proyecto de grado IIND\1. Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4042407-6A26-4315-BCB9-A44739429F50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7055246-59CE-4B2C-B476-C170150D3222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2850" yWindow="2850" windowWidth="15375" windowHeight="7785" activeTab="1" xr2:uid="{D8908B17-C822-4983-8DAE-B5BADBD758E9}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="15375" windowHeight="7785" xr2:uid="{D8908B17-C822-4983-8DAE-B5BADBD758E9}"/>
   </bookViews>
   <sheets>
     <sheet name="pm10" sheetId="3" r:id="rId1"/>
@@ -1221,8 +1221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADA9A0E1-50C4-4A51-9037-4BFF2770DDB4}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F14"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1357,10 +1357,10 @@
       <c r="C7">
         <v>33.39</v>
       </c>
-      <c r="D7">
-        <v>4.71035</v>
-      </c>
-      <c r="E7">
+      <c r="D7" s="4">
+        <v>4.761247</v>
+      </c>
+      <c r="E7" s="4">
         <v>-74.093461000000005</v>
       </c>
       <c r="F7">
@@ -1497,10 +1497,10 @@
       <c r="C14">
         <v>22.097000000000001</v>
       </c>
-      <c r="D14">
-        <v>4.761247</v>
-      </c>
-      <c r="E14">
+      <c r="D14" s="4">
+        <v>4.71035</v>
+      </c>
+      <c r="E14" s="4">
         <v>-74.030417</v>
       </c>
       <c r="F14">
@@ -1519,8 +1519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9952A14-C354-4EDF-893B-23287413DCBB}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
